--- a/StructureDefinition-relatedMedication.xlsx
+++ b/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T19:25:57+00:00</t>
+    <t>2022-02-01T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-relatedMedication.xlsx
+++ b/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T19:36:06+00:00</t>
+    <t>2022-02-02T09:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-relatedMedication.xlsx
+++ b/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T09:00:48+00:00</t>
+    <t>2022-02-02T15:11:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-relatedMedication.xlsx
+++ b/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:11:57+00:00</t>
+    <t>2022-02-03T10:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-relatedMedication.xlsx
+++ b/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:38:38+00:00</t>
+    <t>2022-03-18T08:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-relatedMedication.xlsx
+++ b/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T08:28:00+00:00</t>
+    <t>2022-03-25T11:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
